--- a/biology/Médecine/Jocelyn_Demers/Jocelyn_Demers.xlsx
+++ b/biology/Médecine/Jocelyn_Demers/Jocelyn_Demers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jocelyn Demers, O.C., M.D. est un spécialiste en hémato-oncologie. Il a première obtenu un baccalauréat ès art au Séminaire de Saint-Hyacinthe (1953-1961). Ce grand humaniste a consacré sa vie professionnelle à soulager les enfants atteints de cancer.
 Cofondateur de l'Association Leucan, coïnitiateur du projet Manoir McDonald (1985) et l'un des fondateurs de la Fondation Charles-Bruneau (1990), monsieur Demers s'est toujours impliqué auprès des siens, menant une bataille de tous les instants pour la survie des enfants atteints de diverses formes de cancer. Sa renommée, basée sur la publication d'une centaine d'ouvrages, livres et abstracts, s'étoffe au fil des années par sa persévérance à croire en la victoire de la vie.
@@ -512,7 +524,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut nommé à l'Ordre du Canada le 9 février 2000.
 Il a reçu le prix de l'Ordre du Mérite (Québec) en l'an 2000 décerné par l'Association des diplômés de l'Université de Montréal.
